--- a/biology/Médecine/Rue_des_Dominicains_(Nancy)/Rue_des_Dominicains_(Nancy).xlsx
+++ b/biology/Médecine/Rue_des_Dominicains_(Nancy)/Rue_des_Dominicains_(Nancy).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La rue des Dominicains, par apocope rue des Dom' (prononcé domme), est une voie de la commune de Nancy, sise au sein du département de Meurthe-et-Moselle, en région Lorraine.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue des Dominicains, qui est comprise dans le périmètre de la Ville-neuve et appartient administrativement au quartier Charles III - Centre Ville, va de la place Stanislas et la rue Gambetta au nord jusqu'à son carrefour avec la rue Saint-Jean, où elle est ensuite prolongée en direction du sud par la rue du Pont-Mouja. La voie croise la rue Pierre-Fourier.
 Elle effectue de lien entre l'angle sud-ouest de la place Stanislas et la rue Saint-Georges, axe majeur transversal de la ville-neuve.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de « rue des Dominicains » rappelle l'ancien couvent des Frères-Prêcheurs, fondé à Nancy en 1640, par François de L'Hospital, comte du Hallier, gouverneur français de Nancy sous Louis XIII[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de « rue des Dominicains » rappelle l'ancien couvent des Frères-Prêcheurs, fondé à Nancy en 1640, par François de L'Hospital, comte du Hallier, gouverneur français de Nancy sous Louis XIII.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initialement dans le prolongement de la porte sud de la vieille-ville médiévale, cette voie était l'axe principal du faubourg Saint-Nicolas qui aboutissait jusqu'à Saint-Nicolas-de-Port. Incluse dans la ville-neuve au moment de la Renaissance, elle constitue depuis l'une des artères historiques du commerce nancéien. Après avoir porté les noms de « rue Saint-Nicolas » en 1611, « rue Neuve Saint-Nicolas » en 1728, « rue des Jacobins » et « rue des Dominicains » 1754, « rue Jean-Jacques Rousseau » en 1791 elle prend sa dénomination actuelle en 1814[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement dans le prolongement de la porte sud de la vieille-ville médiévale, cette voie était l'axe principal du faubourg Saint-Nicolas qui aboutissait jusqu'à Saint-Nicolas-de-Port. Incluse dans la ville-neuve au moment de la Renaissance, elle constitue depuis l'une des artères historiques du commerce nancéien. Après avoir porté les noms de « rue Saint-Nicolas » en 1611, « rue Neuve Saint-Nicolas » en 1728, « rue des Jacobins » et « rue des Dominicains » 1754, « rue Jean-Jacques Rousseau » en 1791 elle prend sa dénomination actuelle en 1814.
 </t>
         </is>
       </c>
@@ -606,12 +624,14 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[2] fondée en 1857, successivement pâtisserie Semblat, Charpentier, Pol Adam, puis Lefèvre et à l'enseigne "À Marie Lezczinska" de 1952 à 1989, depuis 1994 succursale de la cristallerie Baccarat[3]. Les enseignes de la pâtisserie en verre églomisé sont toujours en place, dissimulées par des panneaux de bois.
-no 4 : ancien magasin Goudchaux[4] : bandeau de la devanture de style Art nouveau faisant l'objet d'une inscription au titre des monuments historiques depuis 1994[5].
-no 38 : pharmacie du Ginkgo[6],[7] de style Art nouveau.
-no 57 : Maison des Adam[8], édifice objet d’un classement au titre des monuments historiques depuis 1946[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fondée en 1857, successivement pâtisserie Semblat, Charpentier, Pol Adam, puis Lefèvre et à l'enseigne "À Marie Lezczinska" de 1952 à 1989, depuis 1994 succursale de la cristallerie Baccarat. Les enseignes de la pâtisserie en verre églomisé sont toujours en place, dissimulées par des panneaux de bois.
+no 4 : ancien magasin Goudchaux : bandeau de la devanture de style Art nouveau faisant l'objet d'une inscription au titre des monuments historiques depuis 1994.
+no 38 : pharmacie du Ginkgo, de style Art nouveau.
+no 57 : Maison des Adam, édifice objet d’un classement au titre des monuments historiques depuis 1946.</t>
         </is>
       </c>
     </row>
